--- a/Completed Projects/Bank Al-Habib 16th Floors/Running Bill/Running Bill No 1 (changed).xlsx
+++ b/Completed Projects/Bank Al-Habib 16th Floors/Running Bill/Running Bill No 1 (changed).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\Projects 2023\Bank Al-Habib 16th Floors\Running Bill\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Bank Al-Habib 16th Floors\Running Bill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3AAB19-0456-4FA2-85B2-23CDF4925E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE273AF7-3D1C-4589-9844-FB2E4972A5F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'HVAC 16th Floor'!$A$2:$K$59</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'HVAC 16th Floor'!$2:$3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -305,6 +305,21 @@
   <si>
     <t xml:space="preserve">Supply,  fabrication  and  installation  of  pre-insulated  ductwork of  polyurethane  foam  panel  with  52  Kg/m 3   density,  20  mm thickness,  coa1ed  on bolh sides with 80 micron thick  aluminum foil  complete   with  a  2  g/m2   layer   for  internal   duct  work including  manufacturer's aluminum  hardware glue, Hot Dipped galvanized  hangers   and  supports,  flexible  duct  connection wooden  frame,  etc. Complete  in all respects  ready  to  operate as   per   drarwings,   specification   and   as   per   instruction   of consultant.
 </t>
+  </si>
+  <si>
+    <t>Grand</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>Receivable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variations </t>
+  </si>
+  <si>
+    <t>Tax 4.5%</t>
   </si>
 </sst>
 </file>
@@ -312,9 +327,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -593,7 +608,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -606,7 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -615,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -633,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -642,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -651,16 +666,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -669,7 +684,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -711,13 +726,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -729,13 +744,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -747,13 +762,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -768,7 +783,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1056,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:E18"/>
+  <dimension ref="A4:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,17 +1166,10 @@
       <c r="B14" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="50">
-        <f>'HVAC 16th Floor'!H59</f>
-        <v>6116400</v>
-      </c>
-      <c r="D14" s="50">
-        <f>'HVAC 16th Floor'!J59</f>
-        <v>1527210</v>
-      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="46">
-        <f>'HVAC 16th Floor'!K59</f>
-        <v>7643610</v>
+        <v>4180000</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1171,27 +1179,88 @@
       <c r="D15" s="43"/>
       <c r="E15" s="44"/>
     </row>
-    <row r="16" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
+    <row r="16" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="46">
+        <v>287190</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+    </row>
+    <row r="18" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="38">
-        <f>E14</f>
-        <v>7643610</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="3"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="38">
+        <f>E16+E14</f>
+        <v>4467190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="38">
+        <f>E18*4.5%</f>
+        <v>201023.55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="38">
+        <f>E20+E18</f>
+        <v>4668213.55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="38">
+        <v>3185630</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="38">
+        <f>E22-E24</f>
+        <v>1482583.5499999998</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1207,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>

--- a/Completed Projects/Bank Al-Habib 16th Floors/Running Bill/Running Bill No 1 (changed).xlsx
+++ b/Completed Projects/Bank Al-Habib 16th Floors/Running Bill/Running Bill No 1 (changed).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Bank Al-Habib 16th Floors\Running Bill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE273AF7-3D1C-4589-9844-FB2E4972A5F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6403C8CE-20AF-4EFB-A6A6-591A3098DB3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'HVAC 16th Floor'!$A$2:$K$59</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'HVAC 16th Floor'!$2:$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -307,9 +307,6 @@
 </t>
   </si>
   <si>
-    <t>Grand</t>
-  </si>
-  <si>
     <t>Received</t>
   </si>
   <si>
@@ -320,16 +317,23 @@
   </si>
   <si>
     <t>Tax 4.5%</t>
+  </si>
+  <si>
+    <t>Coordination charges 10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Amount </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -613,7 +617,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -788,6 +792,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1071,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:E26"/>
+  <dimension ref="A4:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1096,7 @@
     <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -1182,7 +1195,7 @@
     <row r="16" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="50"/>
@@ -1199,8 +1212,8 @@
     </row>
     <row r="18" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="35"/>
-      <c r="B18" s="36" t="s">
-        <v>64</v>
+      <c r="B18" s="60" t="s">
+        <v>89</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -1210,12 +1223,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="61"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
-      <c r="B20" s="36" t="s">
-        <v>88</v>
+      <c r="B20" s="60" t="s">
+        <v>87</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
@@ -1224,24 +1238,46 @@
         <v>201023.55</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="38">
+        <f>E20+E18</f>
+        <v>4668213.55</v>
+      </c>
+    </row>
     <row r="22" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
-      <c r="B22" s="36" t="s">
-        <v>84</v>
+      <c r="B22" s="60" t="s">
+        <v>88</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
-      <c r="E22" s="38">
-        <f>E20+E18</f>
-        <v>4668213.55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="E22" s="59">
+        <f>E21*10%</f>
+        <v>466821.35499999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="59">
+        <f>E22+E21</f>
+        <v>5135034.9049999993</v>
+      </c>
+    </row>
     <row r="24" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35"/>
-      <c r="B24" s="36" t="s">
-        <v>85</v>
+      <c r="B24" s="60" t="s">
+        <v>84</v>
       </c>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
@@ -1249,17 +1285,16 @@
         <v>3185630</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="38">
-        <f>E22-E24</f>
-        <v>1482583.5499999998</v>
+    <row r="25" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
+      <c r="B25" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="38">
+        <f>E23-E24</f>
+        <v>1949404.9049999993</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2091,7 @@
         <v>22620</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>6</v>
       </c>
@@ -2944,7 +2979,7 @@
         <v>550200</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" s="39" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>10</v>
       </c>
@@ -3079,7 +3114,7 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>13</v>
       </c>
